--- a/TC18_ApprovedProposal/18_ActionAlertMessage_ApprovedProposal.xlsx
+++ b/TC18_ApprovedProposal/18_ActionAlertMessage_ApprovedProposal.xlsx
@@ -939,7 +939,7 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/TC18_ApprovedProposal/18_ActionAlertMessage_ApprovedProposal.xlsx
+++ b/TC18_ApprovedProposal/18_ActionAlertMessage_ApprovedProposal.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test2\it\Project_Test_AcademicService\TC18_ApprovedProposal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4330EAC-D244-4A1A-8163-BD823A7DB17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC18-EC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TC18-TC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TC18-EC" sheetId="1" r:id="rId1"/>
+    <sheet name="TC18-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>TCID</t>
   </si>
@@ -197,78 +216,77 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="TH Sarabun ps"/>
       <charset val="222"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-      <family val="2"/>
-      <color rgb="FF00B050"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -466,172 +484,172 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -641,10 +659,18 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -932,31 +958,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="13.58203125" bestFit="1" customWidth="1" style="38" min="1" max="1"/>
-    <col width="32.25" bestFit="1" customWidth="1" style="39" min="2" max="2"/>
-    <col width="20.4140625" bestFit="1" customWidth="1" style="56" min="3" max="3"/>
-    <col width="27.25" bestFit="1" customWidth="1" style="39" min="4" max="4"/>
-    <col width="13.83203125" bestFit="1" customWidth="1" style="38" min="5" max="5"/>
-    <col width="27" bestFit="1" customWidth="1" style="54" min="6" max="6"/>
-    <col width="18.1640625" bestFit="1" customWidth="1" style="41" min="7" max="7"/>
-    <col width="12.25" bestFit="1" customWidth="1" style="56" min="8" max="8"/>
-    <col width="30.58203125" bestFit="1" customWidth="1" style="39" min="9" max="9"/>
+    <col min="1" max="1" width="13.58203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" s="56">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -985,8 +1010,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="62.5" customHeight="1" s="56">
-      <c r="A2" s="33" t="n">
+    <row r="2" spans="1:9" ht="62.5" customHeight="1">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -998,7 +1023,7 @@
       <c r="D2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="33">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -1014,8 +1039,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68" customHeight="1" s="56">
-      <c r="A3" s="33" t="n">
+    <row r="3" spans="1:9" ht="68" customHeight="1">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -1027,7 +1052,7 @@
       <c r="D3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="33">
         <v>3</v>
       </c>
       <c r="F3" s="36" t="s">
@@ -1043,107 +1068,109 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" s="56"/>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" s="56"/>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" s="56">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1"/>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1"/>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="E6" s="53" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="54"/>
       <c r="G6" s="42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" s="56">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="E7" s="43" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="44">
         <f>COUNTIF(G2:G3, "Pass")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G7" s="45">
         <f>F7*100/F9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="E8" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="44">
         <f>COUNTIF(G2:G3, "FAIL")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G8" s="45">
         <f>F8*100/F9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="E9" s="43" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="44">
         <f>SUM(F7+F8)</f>
-        <v/>
-      </c>
-      <c r="G9" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="46">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" s="56">
-      <c r="E10" s="47" t="n"/>
-      <c r="F10" s="47" t="n"/>
-      <c r="G10" s="48" t="n"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" s="56">
-      <c r="E11" s="47" t="n"/>
-      <c r="F11" s="47" t="n"/>
-      <c r="G11" s="48" t="n"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" s="56">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="E12" s="53" t="s">
         <v>25</v>
       </c>
+      <c r="F12" s="54"/>
       <c r="G12" s="42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" s="56">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1">
       <c r="E13" s="43" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="44">
         <f>COUNTIF(H2:H3, "PASS")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G13" s="45">
         <f>F13*100/F15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1">
       <c r="E14" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="44">
         <f>COUNTIF(H2:H3, "FAIL")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="G14" s="45">
         <f>F14*100/F15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" s="56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1">
       <c r="E15" s="43" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="44">
         <f>SUM(F13+F14)</f>
-        <v/>
-      </c>
-      <c r="G15" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="45">
         <v>100</v>
       </c>
     </row>
@@ -1157,25 +1184,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col width="12.1640625" customWidth="1" style="56" min="1" max="1"/>
-    <col width="26.08203125" customWidth="1" style="56" min="2" max="2"/>
-    <col width="34.6640625" customWidth="1" style="56" min="3" max="3"/>
-    <col width="31.08203125" customWidth="1" style="56" min="4" max="4"/>
-    <col width="24.25" customWidth="1" style="56" min="5" max="5"/>
-    <col width="27.58203125" customWidth="1" style="56" min="6" max="6"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.08203125" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="27.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1198,8 +1221,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" s="56">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -1211,23 +1234,26 @@
       <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="n"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" s="56">
-      <c r="A3" s="58" t="n"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="n"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="10" t="n"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
@@ -1237,9 +1263,11 @@
       <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="10" t="n"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>39</v>
       </c>
@@ -1249,39 +1277,47 @@
       <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="10" t="n"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="16" t="n"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="10" t="n"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="16" t="n"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="15" t="n"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="16" t="n"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="15" t="n"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="14" t="s">
         <v>48</v>
       </c>
@@ -1291,9 +1327,11 @@
       <c r="E9" s="51" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="15" t="n"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="14" t="s">
         <v>50</v>
       </c>
@@ -1303,18 +1341,21 @@
       <c r="E10" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="19" t="n"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="22" t="n"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" s="56">
+      <c r="E11" s="22"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1327,24 +1368,26 @@
       <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6" t="n"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" s="56">
-      <c r="A13" s="23" t="n"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="9" t="n"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="n"/>
-      <c r="B14" s="10" t="n"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
         <v>36</v>
       </c>
@@ -1354,10 +1397,11 @@
       <c r="E14" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14" t="n"/>
-      <c r="B15" s="10" t="n"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
@@ -1367,43 +1411,47 @@
       <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="10" t="n"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="16" t="n"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="n"/>
-      <c r="B17" s="10" t="n"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="16" t="n"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14" t="n"/>
-      <c r="B18" s="15" t="n"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="24" t="n"/>
-    </row>
-    <row r="19" spans="1:6" ht="42" customHeight="1" s="56">
-      <c r="A19" s="14" t="n"/>
-      <c r="B19" s="15" t="n"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="42" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="14" t="s">
         <v>48</v>
       </c>
@@ -1413,10 +1461,11 @@
       <c r="E19" s="25" t="s">
         <v>16</v>
       </c>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="15" t="n"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="14" t="s">
         <v>56</v>
       </c>
@@ -1426,17 +1475,19 @@
       <c r="E20" s="18" t="s">
         <v>58</v>
       </c>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="26" t="n"/>
-      <c r="B21" s="19" t="n"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="22" t="n"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1447,8 +1498,8 @@
     <mergeCell ref="F12:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="Sch_ool.1a@gmail.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" display="Sch_ool.1a@gmail.com" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId1" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E14" r:id="rId2" display="Sch_ool.1a@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
